--- a/src/main/resources/LegacyUsers.xlsx
+++ b/src/main/resources/LegacyUsers.xlsx
@@ -255,9 +255,6 @@
     <t>TLC-CGH</t>
   </si>
   <si>
-    <t xml:space="preserve"> CGH18</t>
-  </si>
-  <si>
     <t xml:space="preserve">a4c49be61454ab78f19c6bcc4056a5db6598403cfedd0b41ca15ebf6fffaeb527b325cff82ed409772bbaedb5508c8716d82a0da7812730e9a7a87a84aad6889 </t>
   </si>
   <si>
@@ -352,6 +349,10 @@
   </si>
   <si>
     <t>PSEUDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGH18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +732,7 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -741,7 +742,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1126,13 +1127,13 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1140,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1151,10 +1152,10 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1162,21 +1163,21 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1184,10 +1185,10 @@
         <v>68</v>
       </c>
       <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
         <v>85</v>
-      </c>
-      <c r="C41" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1195,32 +1196,32 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1228,10 +1229,10 @@
         <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1239,10 +1240,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1250,10 +1251,10 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1261,10 +1262,10 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1272,32 +1273,32 @@
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1305,21 +1306,21 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
         <v>101</v>
-      </c>
-      <c r="C52" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1327,10 +1328,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
         <v>106</v>
-      </c>
-      <c r="C54" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1338,10 +1339,10 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
         <v>108</v>
-      </c>
-      <c r="C55" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/LegacyUsers.xlsx
+++ b/src/main/resources/LegacyUsers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
   <si>
     <t>guid1</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>NTUH14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b1e25a9323326d8685d69f8f25125472ea401f7abaeb3b64056d6a925b337c10bc18bdcf9ea1e71b1122c1ccdb13cbf254603fa12b80ed57958871d770a721ca </t>
   </si>
   <si>
     <t>tcla-genny200010</t>
@@ -353,6 +350,25 @@
   </si>
   <si>
     <t>CGH18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BABEBIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>babebio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1f78dce5092ed5be991e984c63e8bfaaea481d162fd6b8db3059bfb955028e379c59a4c1888be5daf76c8ce38e74a60d96dc28ed08eea91adc93c074bb01334</t>
+  </si>
+  <si>
+    <t>b1e25a9323326d8685d69f8f25125472ea401f7abaeb3b64056d6a925b337c10bc18bdcf9ea1e71b1122c1ccdb13cbf254603fa12b80ed57958871d770a721ca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">52d8758531d2db9323638d8a1f12354f51c76301014a9bc6dcad335741fa828284603589cbf0f62330da52fe393e41c589be0d920540673d0b04aca60645753a </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -374,6 +390,34 @@
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -393,14 +437,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超連結" xfId="17" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -729,620 +811,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="B54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" t="s">
-        <v>108</v>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
